--- a/example/ex1.xlsx
+++ b/example/ex1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F7E8BC-E78F-FC4A-AC26-F750D6E73545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F08A97-631A-BE49-934C-054C9EDFEAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="設定" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>mail_address</t>
   </si>
@@ -125,9 +125,6 @@
   <si>
     <t>n1name</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>n2name</t>
   </si>
   <si>
     <t>n3name</t>
@@ -814,7 +811,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
@@ -903,10 +900,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="57">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -918,13 +915,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -933,10 +930,10 @@
         <v>c1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="6">
         <v>0</v>
@@ -970,8 +967,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -999,13 +996,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="17" customFormat="1">
@@ -1016,7 +1013,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="14">
         <v>0</v>
@@ -1040,11 +1037,9 @@
       <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="B3" s="12"/>
       <c r="C3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="14">
         <v>0</v>
@@ -1069,10 +1064,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="14">
         <v>0</v>
@@ -1097,10 +1092,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="14">
         <v>0</v>
@@ -1125,10 +1120,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="14">
         <v>0</v>
@@ -1153,10 +1148,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="14">
         <v>0</v>

--- a/example/ex1.xlsx
+++ b/example/ex1.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F08A97-631A-BE49-934C-054C9EDFEAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609A462B-1ADC-FB49-8187-76BCD116A68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="設定" sheetId="2" r:id="rId1"/>
     <sheet name="01.company" sheetId="3" r:id="rId2"/>
     <sheet name="02.account" sheetId="4" r:id="rId3"/>
+    <sheet name="test_data" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>mail_address</t>
   </si>
@@ -179,6 +180,14 @@
   </si>
   <si>
     <t>update_signature</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -358,7 +367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -391,25 +400,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -929,10 +926,10 @@
         <f>設定!$B$1</f>
         <v>c1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="6">
@@ -967,7 +964,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1005,7 +1002,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="17" customFormat="1">
+    <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
@@ -1015,25 +1012,25 @@
       <c r="C2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="16" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="17" customFormat="1">
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
@@ -1041,25 +1038,25 @@
       <c r="C3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="16" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="16" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="17" customFormat="1">
+      <c r="E3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="12" t="s">
         <v>20</v>
       </c>
@@ -1069,25 +1066,25 @@
       <c r="C4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="16" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="16" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="17" customFormat="1">
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
@@ -1097,25 +1094,25 @@
       <c r="C5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="16" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="16" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="17" customFormat="1">
+      <c r="E5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
@@ -1125,25 +1122,25 @@
       <c r="C6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="6">
         <v>0</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="16" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="16" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="17" customFormat="1">
+      <c r="E6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>23</v>
       </c>
@@ -1153,20 +1150,20 @@
       <c r="C7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="6">
         <v>0</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="16" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="16" t="str">
+      <c r="E7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5" t="str">
         <f>設定!$B$2</f>
         <v>version1</v>
       </c>
@@ -1179,4 +1176,30 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82604161-2486-4441-9F77-E5B4F76BD281}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/example/ex1.xlsx
+++ b/example/ex1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609A462B-1ADC-FB49-8187-76BCD116A68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63299746-04DD-6E45-8F20-EB01214CEAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="設定" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>mail_address</t>
   </si>
@@ -188,6 +188,14 @@
   </si>
   <si>
     <t>a</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>mail2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>""</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -282,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -357,6 +365,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -367,7 +388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -411,6 +432,15 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -962,208 +992,219 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D256C64-6C59-478E-ABD1-D733223BAD9D}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="2"/>
+    <col min="3" max="4" width="34.5" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="57">
+    <row r="1" spans="1:9" ht="57">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="13"/>
+      <c r="E3" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="13"/>
+      <c r="E4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="5" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="F4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="13"/>
+      <c r="E5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="F5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="13"/>
+      <c r="E6" s="6">
         <v>0</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="5" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="F6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="13"/>
+      <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="5" t="str">
-        <f>設定!$B$2</f>
-        <v>version1</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="5" t="str">
+      <c r="F7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f>設定!$B$2</f>
+        <v>version1</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="5" t="str">
         <f>設定!$B$2</f>
         <v>version1</v>
       </c>
@@ -1182,7 +1223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82604161-2486-4441-9F77-E5B4F76BD281}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
